--- a/Resources/Data/GemData.xlsx
+++ b/Resources/Data/GemData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\it242225\Documents\Visual Studio 2022\projects\二年生\オリジナル_テスト\CaveDiving\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B444548-D4AA-4F1E-ADFE-07AD2AA619E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF9A06E-6DA4-4CED-A628-1B0BFA2A671A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2220" yWindow="1392" windowWidth="19212" windowHeight="10692" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>効果</t>
     <rPh sb="0" eb="2">
@@ -102,6 +102,31 @@
   </si>
   <si>
     <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パネル画像ファイルパス</t>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>emeraldpanel.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rubypanel.png</t>
+  </si>
+  <si>
+    <t>rubypanel.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sapphirepanel.png</t>
+  </si>
+  <si>
+    <t>frame.png</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -133,7 +158,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -156,13 +181,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -443,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -456,9 +493,10 @@
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
     <col min="5" max="5" width="36.5" customWidth="1"/>
+    <col min="6" max="6" width="20.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -474,8 +512,11 @@
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -492,8 +533,11 @@
         <f>CONCATENATE(C2,"を",D2,"増加する")</f>
         <v>体力を10増加する</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -510,8 +554,11 @@
         <f t="shared" ref="E3:E8" si="0">CONCATENATE(C3,"を",D3,"増加する")</f>
         <v>攻撃力を10増加する</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -528,8 +575,11 @@
         <f t="shared" si="0"/>
         <v>防御力を10増加する</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -546,8 +596,11 @@
         <f t="shared" si="0"/>
         <v>体力を10増加する</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -564,8 +617,11 @@
         <f t="shared" si="0"/>
         <v>攻撃力を10増加する</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -582,8 +638,11 @@
         <f t="shared" si="0"/>
         <v>防御力を10増加する</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -599,6 +658,9 @@
       <c r="E8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>特殊を10増加する</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
